--- a/src/tests/API_tests_log.xlsx
+++ b/src/tests/API_tests_log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OuluPWP\gitRepo\src\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LUT\PWP\PWP_2020\src\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B02710-9607-42B5-A65C-9E36AFBA518B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40590" yWindow="-45" windowWidth="17115" windowHeight="14580" activeTab="2" xr2:uid="{7AFD52B7-5160-4E9D-8564-57C6F2DD7C25}"/>
+    <workbookView xWindow="40596" yWindow="-48" windowWidth="17112" windowHeight="14580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Predata" sheetId="6" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Equipment.py" sheetId="2" r:id="rId4"/>
     <sheet name="Component.py" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="176">
   <si>
     <t>User.py</t>
   </si>
@@ -650,7 +649,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1139,12 +1138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1179,22 +1175,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1204,30 +1192,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1249,10 +1219,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1272,7 +1238,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1331,6 +1296,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1646,55 +1641,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77238444-0989-4764-A8F9-98E9DF6CAEDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="50" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="50"/>
+    <col min="1" max="1" width="5.109375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="52" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="2:9" s="40" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="83"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="43" t="s">
         <v>56</v>
       </c>
       <c r="D4"/>
@@ -1703,11 +1698,11 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="59">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="46" t="s">
         <v>50</v>
       </c>
       <c r="D5"/>
@@ -1716,11 +1711,11 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="65">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="50">
         <v>2</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="52" t="s">
         <v>58</v>
       </c>
       <c r="D6"/>
@@ -1729,216 +1724,216 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
-      <c r="C7" s="64"/>
+    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="47"/>
+      <c r="C7" s="49"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="53" t="s">
+    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="56" t="s">
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="59">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="44">
         <v>1</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="46" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="52" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+    <row r="14" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+    </row>
+    <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="56" t="s">
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="83"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="58" t="s">
+      <c r="I18" s="43" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="59">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="44">
         <v>1</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="60" t="s">
+      <c r="H19" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="61" t="s">
+      <c r="I19" s="46" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="65" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="67" t="s">
+      <c r="I20" s="52" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
+    <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1948,31 +1943,35 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;11&amp;K404040Restricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606DF451-38B9-4636-9153-A3F7DA973893}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="85"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1980,132 +1979,148 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="C4" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="C7" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="C8" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
+      <c r="C9" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;11&amp;K404040Restricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700A5112-56DA-4B6B-904A-EFBC7031690B}">
-  <dimension ref="A1:D64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="85"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2113,665 +2128,739 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="C4" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="93"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="75"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="C7" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="C8" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="C9" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="C10" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="C11" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22" t="s">
+      <c r="C12" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="C13" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>2</v>
       </c>
-      <c r="C14" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="C14" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="C15" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="C16" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="C17" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="C19" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="93"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+      <c r="C21" s="76"/>
+      <c r="D21" s="75"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="93"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="C22" s="76"/>
+      <c r="D22" s="75"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="C23" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="C24" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="C25" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="C26" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D27" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="C27" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="96"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="C28" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="C30" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="89"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="C31" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="91"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="93"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
+      <c r="B33" s="36"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B34" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="91"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
+      <c r="C34" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B35" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="93"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="C35" s="76"/>
+      <c r="D35" s="75"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="C36" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="C37" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="C38" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="82"/>
-      <c r="D42" s="83"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="C39" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="82"/>
-      <c r="D43" s="83"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="C40" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="82"/>
-      <c r="D44" s="83"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="C41" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B42" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10" t="s">
+      <c r="C42" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10" t="s">
+      <c r="C43" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="83"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22" t="s">
+      <c r="C44" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="82"/>
-      <c r="D48" s="83"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="C45" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="83"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="96"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="C46" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="78"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="88"/>
-      <c r="D51" s="89"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
+      <c r="C48" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B49" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="82"/>
-      <c r="D52" s="83"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="47" t="s">
+      <c r="B50" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="93"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
+      <c r="C50" s="76"/>
+      <c r="D50" s="75"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B51" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="90"/>
-      <c r="D54" s="91"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="72" t="s">
+      <c r="C51" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B52" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="94"/>
-      <c r="D55" s="93"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+      <c r="C52" s="76"/>
+      <c r="D52" s="75"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
+      <c r="C53" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="82"/>
-      <c r="D57" s="83"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
+      <c r="C54" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="82"/>
-      <c r="D58" s="83"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
+      <c r="C55" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B56" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="82"/>
-      <c r="D59" s="83"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="77"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="93"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="46" t="s">
+      <c r="C56" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="60"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="75"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="47" t="s">
+      <c r="B58" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="94"/>
-      <c r="D61" s="93"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="72" t="s">
+      <c r="C58" s="76"/>
+      <c r="D58" s="75"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B59" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="94"/>
-      <c r="D62" s="93"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+      <c r="C59" s="76"/>
+      <c r="D59" s="75"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B60" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="82"/>
-      <c r="D63" s="83"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="96"/>
+      <c r="C60" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2779,31 +2868,34 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;11&amp;K404040Restricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AF9767-FF9C-486D-83B6-6C55A5D54238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="85"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2811,1295 +2903,1307 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="C7" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="C8" s="76"/>
+      <c r="D8" s="75"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>2</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+    </row>
+    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="C27" s="76"/>
+      <c r="D27" s="75"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="C29" s="76"/>
+      <c r="D29" s="75"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="C31" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="76" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-    </row>
-    <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
+    </row>
+    <row r="36" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="36"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="78"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="25"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="26"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="C42" s="68"/>
+      <c r="D42" s="69"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="27"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="C43" s="70"/>
+      <c r="D43" s="71"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="45"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+      <c r="B45" s="36"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="75"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+      <c r="C46" s="72"/>
+      <c r="D46" s="73"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="72" t="s">
+      <c r="C47" s="72"/>
+      <c r="D47" s="73"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="C48" s="76"/>
+      <c r="D48" s="75"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="73" t="s">
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
+    </row>
+    <row r="50" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="15">
         <v>2</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="C51" s="64"/>
+      <c r="D51" s="65"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="33"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="C53" s="64"/>
+      <c r="D53" s="65"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="33"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="C55" s="64"/>
+      <c r="D55" s="65"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="33"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+      <c r="C57" s="64"/>
+      <c r="D57" s="65"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="33"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="33"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+      <c r="C59" s="64"/>
+      <c r="D59" s="65"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="33"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="33"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="33"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+      <c r="C62" s="64"/>
+      <c r="D62" s="65"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="33"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
+      <c r="C63" s="64"/>
+      <c r="D63" s="65"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="33"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10" t="s">
+      <c r="C64" s="64"/>
+      <c r="D64" s="65"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="33"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10" t="s">
+      <c r="C65" s="64"/>
+      <c r="D65" s="65"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="33"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22" t="s">
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="33"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="C67" s="64"/>
+      <c r="D67" s="65"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="33"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22" t="s">
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="20"/>
+      <c r="B69" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="33"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
+      <c r="C69" s="64"/>
+      <c r="D69" s="65"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="33"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="10" t="s">
+      <c r="C70" s="64"/>
+      <c r="D70" s="65"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="33"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10" t="s">
+      <c r="C71" s="64"/>
+      <c r="D71" s="65"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="33"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22" t="s">
+      <c r="C72" s="64"/>
+      <c r="D72" s="65"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="20"/>
+      <c r="B73" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="33"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="35"/>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+      <c r="C73" s="64"/>
+      <c r="D73" s="65"/>
+    </row>
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="78"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="27"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="37" t="s">
+      <c r="C75" s="70"/>
+      <c r="D75" s="71"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="33"/>
-    </row>
-    <row r="77" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="72" t="s">
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+    </row>
+    <row r="77" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A77" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="71" t="s">
+      <c r="B77" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="49"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
+      <c r="C77" s="76"/>
+      <c r="D77" s="75"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="31"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="41" t="s">
+      <c r="C78" s="72"/>
+      <c r="D78" s="73"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="31"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="72" t="s">
+      <c r="C79" s="72"/>
+      <c r="D79" s="73"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="48"/>
-      <c r="D80" s="49"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="41" t="s">
+      <c r="C80" s="76"/>
+      <c r="D80" s="75"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="31"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="72" t="s">
+      <c r="C81" s="72"/>
+      <c r="D81" s="73"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C82" s="48"/>
-      <c r="D82" s="49"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
+      <c r="C82" s="76"/>
+      <c r="D82" s="75"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="33"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="39" t="s">
+      <c r="C83" s="64"/>
+      <c r="D83" s="65"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="33"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="33"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="s">
+      <c r="C85" s="64"/>
+      <c r="D85" s="65"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B86" s="40" t="s">
+      <c r="B86" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="33"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="72" t="s">
+      <c r="C86" s="64"/>
+      <c r="D86" s="65"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B87" s="40" t="s">
+      <c r="B87" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C87" s="48"/>
-      <c r="D87" s="49"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="76" t="s">
+      <c r="C87" s="76"/>
+      <c r="D87" s="75"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="B88" s="40" t="s">
+      <c r="B88" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="33"/>
-    </row>
-    <row r="89" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A89" s="75" t="s">
+      <c r="C88" s="64"/>
+      <c r="D88" s="65"/>
+    </row>
+    <row r="89" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="33"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
+      <c r="C89" s="64"/>
+      <c r="D89" s="65"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="36"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="77"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="45"/>
-    </row>
-    <row r="92" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="72" t="s">
+      <c r="C90" s="64"/>
+      <c r="D90" s="65"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="60"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="75"/>
+    </row>
+    <row r="92" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A92" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="71" t="s">
+      <c r="B92" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C92" s="48"/>
-      <c r="D92" s="49"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="72" t="s">
+      <c r="C92" s="76"/>
+      <c r="D92" s="75"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="40" t="s">
+      <c r="B93" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="49"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="39" t="s">
+      <c r="C93" s="76"/>
+      <c r="D93" s="75"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="33"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="72"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="49"/>
-    </row>
-    <row r="96" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A96" s="72" t="s">
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="55"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="75"/>
+    </row>
+    <row r="96" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="71" t="s">
+      <c r="B96" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="49"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="72" t="s">
+      <c r="C96" s="76"/>
+      <c r="D96" s="75"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B97" s="40" t="s">
+      <c r="B97" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C97" s="48"/>
-      <c r="D97" s="49"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="41" t="s">
+      <c r="C97" s="76"/>
+      <c r="D97" s="75"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="B98" s="42" t="s">
+      <c r="B98" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="30"/>
-      <c r="D98" s="31"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="41"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="78"/>
-    </row>
-    <row r="100" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A100" s="72" t="s">
+      <c r="C98" s="72"/>
+      <c r="D98" s="73"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="34"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="88"/>
+    </row>
+    <row r="100" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A100" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="71" t="s">
+      <c r="B100" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C100" s="48"/>
-      <c r="D100" s="49"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="72" t="s">
+      <c r="C100" s="76"/>
+      <c r="D100" s="75"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B101" s="40" t="s">
+      <c r="B101" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C101" s="48"/>
-      <c r="D101" s="49"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="41" t="s">
+      <c r="C101" s="76"/>
+      <c r="D101" s="75"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B102" s="42" t="s">
+      <c r="B102" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C102" s="30"/>
-      <c r="D102" s="31"/>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="11"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="35"/>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+      <c r="C102" s="72"/>
+      <c r="D102" s="73"/>
+    </row>
+    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="10"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="78"/>
+    </row>
+    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="27"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="37" t="s">
+      <c r="C104" s="70"/>
+      <c r="D104" s="71"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="32"/>
-      <c r="D105" s="33"/>
-    </row>
-    <row r="106" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A106" s="72" t="s">
+      <c r="C105" s="64"/>
+      <c r="D105" s="65"/>
+    </row>
+    <row r="106" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A106" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="71" t="s">
+      <c r="B106" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="48"/>
-      <c r="D106" s="49"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
+      <c r="C106" s="76"/>
+      <c r="D106" s="75"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="42" t="s">
+      <c r="B107" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C107" s="30"/>
-      <c r="D107" s="31"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="41" t="s">
+      <c r="C107" s="72"/>
+      <c r="D107" s="73"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B108" s="42" t="s">
+      <c r="B108" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="30"/>
-      <c r="D108" s="31"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="72" t="s">
+      <c r="C108" s="72"/>
+      <c r="D108" s="73"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B109" s="40" t="s">
+      <c r="B109" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C109" s="48"/>
-      <c r="D109" s="49"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="39" t="s">
+      <c r="C109" s="76"/>
+      <c r="D109" s="75"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C110" s="32"/>
-      <c r="D110" s="33"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="39" t="s">
+      <c r="C110" s="64"/>
+      <c r="D110" s="65"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C111" s="32"/>
-      <c r="D111" s="33"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="39" t="s">
+      <c r="C111" s="64"/>
+      <c r="D111" s="65"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C112" s="32"/>
-      <c r="D112" s="33"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="72" t="s">
+      <c r="C112" s="64"/>
+      <c r="D112" s="65"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B113" s="40" t="s">
+      <c r="B113" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C113" s="48"/>
-      <c r="D113" s="49"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="76" t="s">
+      <c r="C113" s="76"/>
+      <c r="D113" s="75"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B114" s="40" t="s">
+      <c r="B114" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C114" s="32"/>
-      <c r="D114" s="33"/>
-    </row>
-    <row r="115" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A115" s="75" t="s">
+      <c r="C114" s="64"/>
+      <c r="D114" s="65"/>
+    </row>
+    <row r="115" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B115" s="74" t="s">
+      <c r="B115" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C115" s="32"/>
-      <c r="D115" s="33"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="79"/>
-      <c r="B116" s="71"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="49"/>
-    </row>
-    <row r="117" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A117" s="46" t="s">
+      <c r="C115" s="64"/>
+      <c r="D115" s="65"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="61"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="76"/>
+      <c r="D116" s="75"/>
+    </row>
+    <row r="117" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A117" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="71" t="s">
+      <c r="B117" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="C117" s="48"/>
-      <c r="D117" s="49"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="72" t="s">
+      <c r="C117" s="76"/>
+      <c r="D117" s="75"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B118" s="40" t="s">
+      <c r="B118" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C118" s="48"/>
-      <c r="D118" s="49"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="39" t="s">
+      <c r="C118" s="76"/>
+      <c r="D118" s="75"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B119" s="40" t="s">
+      <c r="B119" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C119" s="32"/>
-      <c r="D119" s="36"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="77"/>
-      <c r="B120" s="47"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="36"/>
-    </row>
-    <row r="121" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="46" t="s">
+      <c r="C119" s="64"/>
+      <c r="D119" s="65"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="60"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="65"/>
+    </row>
+    <row r="121" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A121" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="71" t="s">
+      <c r="B121" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="C121" s="48"/>
-      <c r="D121" s="49"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="72" t="s">
+      <c r="C121" s="76"/>
+      <c r="D121" s="75"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B122" s="40" t="s">
+      <c r="B122" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C122" s="48"/>
-      <c r="D122" s="49"/>
-    </row>
-    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="80" t="s">
+      <c r="C122" s="76"/>
+      <c r="D122" s="75"/>
+    </row>
+    <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="B123" s="42" t="s">
+      <c r="B123" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C123" s="30"/>
-      <c r="D123" s="31"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="41" t="s">
+      <c r="C123" s="72"/>
+      <c r="D123" s="73"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B124" s="42" t="s">
+      <c r="B124" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C124" s="30"/>
-      <c r="D124" s="31"/>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="11"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="35"/>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
+      <c r="C124" s="72"/>
+      <c r="D124" s="73"/>
+    </row>
+    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="10"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="77"/>
+      <c r="D125" s="78"/>
+    </row>
+    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="27"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="37" t="s">
+      <c r="C126" s="70"/>
+      <c r="D126" s="71"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B127" s="38" t="s">
+      <c r="B127" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="32"/>
-      <c r="D127" s="33"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="72" t="s">
+      <c r="C127" s="64"/>
+      <c r="D127" s="65"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B128" s="71"/>
-      <c r="C128" s="48"/>
-      <c r="D128" s="49"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="41" t="s">
+      <c r="B128" s="54"/>
+      <c r="C128" s="76"/>
+      <c r="D128" s="75"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B129" s="42" t="s">
+      <c r="B129" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C129" s="30"/>
-      <c r="D129" s="31"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="41" t="s">
+      <c r="C129" s="72"/>
+      <c r="D129" s="73"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B130" s="42" t="s">
+      <c r="B130" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C130" s="30"/>
-      <c r="D130" s="31"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="72" t="s">
+      <c r="C130" s="72"/>
+      <c r="D130" s="73"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B131" s="40" t="s">
+      <c r="B131" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="48"/>
-      <c r="D131" s="49"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="39" t="s">
+      <c r="C131" s="76"/>
+      <c r="D131" s="75"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="32"/>
-      <c r="D132" s="33"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="76" t="s">
+      <c r="C132" s="64"/>
+      <c r="D132" s="65"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="B133" s="40" t="s">
+      <c r="B133" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C133" s="32"/>
-      <c r="D133" s="33"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="81" t="s">
+      <c r="C133" s="64"/>
+      <c r="D133" s="65"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="B134" s="40" t="s">
+      <c r="B134" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C134" s="69"/>
-      <c r="D134" s="70"/>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="17"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="35"/>
+      <c r="C134" s="89"/>
+      <c r="D134" s="90"/>
+    </row>
+    <row r="135" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="16"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;11&amp;K404040Restricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757C36B0-677F-4CBF-A328-A835AAE262BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="C2" sqref="C2:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="85"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4107,532 +4211,536 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="75"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-    </row>
-    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+    </row>
+    <row r="12" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+    </row>
+    <row r="27" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="C27" s="76"/>
+      <c r="D27" s="75"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="C29" s="72"/>
+      <c r="D29" s="73"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="C31" s="76"/>
+      <c r="D31" s="75"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="72" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="76" t="s">
+      <c r="C35" s="76"/>
+      <c r="D35" s="75"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
+    </row>
+    <row r="37" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="C38" s="76"/>
+      <c r="D38" s="75"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="36"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="77"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="36"/>
-    </row>
-    <row r="41" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="60"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+    </row>
+    <row r="41" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="72" t="s">
+      <c r="C41" s="76"/>
+      <c r="D41" s="75"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="80" t="s">
+      <c r="C42" s="76"/>
+      <c r="D42" s="75"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
+      <c r="C43" s="72"/>
+      <c r="D43" s="73"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="35"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="78"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="27"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="72" t="s">
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="75"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
+      <c r="C49" s="72"/>
+      <c r="D49" s="73"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+      <c r="C50" s="72"/>
+      <c r="D50" s="73"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="72" t="s">
+      <c r="C51" s="72"/>
+      <c r="D51" s="73"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="49"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
+      <c r="C52" s="76"/>
+      <c r="D52" s="75"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="76" t="s">
+      <c r="C53" s="64"/>
+      <c r="D53" s="65"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="81" t="s">
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="70"/>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;11&amp;K404040Restricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/tests/API_tests_log.xlsx
+++ b/src/tests/API_tests_log.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="176">
   <si>
     <t>User.py</t>
   </si>
@@ -2879,8 +2879,8 @@
   <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2960,10 +2960,10 @@
       <c r="B7" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="73" t="s">
+      <c r="C7" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="87" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2984,8 +2984,12 @@
       <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
+      <c r="C9" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
@@ -2994,8 +2998,12 @@
       <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
+      <c r="C10" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
@@ -3004,8 +3012,12 @@
       <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
+      <c r="C11" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
@@ -3014,8 +3026,12 @@
       <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
+      <c r="C12" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
@@ -3024,32 +3040,48 @@
       <c r="B13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
+      <c r="C13" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
+      <c r="C14" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
+      <c r="C15" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
+      <c r="C16" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
@@ -3058,8 +3090,12 @@
       <c r="B17" s="15">
         <v>2</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
+      <c r="C17" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
@@ -3068,8 +3104,12 @@
       <c r="B18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
+      <c r="C18" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
@@ -3078,8 +3118,12 @@
       <c r="B19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
+      <c r="C19" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
